--- a/www/IndicatorsPerCountry/Panama_GDPperCapita_TerritorialRef_1946_2012_CCode_591.xlsx
+++ b/www/IndicatorsPerCountry/Panama_GDPperCapita_TerritorialRef_1946_2012_CCode_591.xlsx
@@ -255,13 +255,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Panama_GDPperCapita_TerritorialRef_1946_2012_CCode_591.xlsx
+++ b/www/IndicatorsPerCountry/Panama_GDPperCapita_TerritorialRef_1946_2012_CCode_591.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="128">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,196 +36,331 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>2113</t>
-  </si>
-  <si>
-    <t>2155</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2031</t>
-  </si>
-  <si>
-    <t>1916</t>
-  </si>
-  <si>
-    <t>1851</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>2055</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2270</t>
-  </si>
-  <si>
-    <t>2241</t>
-  </si>
-  <si>
-    <t>2322</t>
+    <t>2276</t>
+  </si>
+  <si>
+    <t>2377</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2648</t>
+  </si>
+  <si>
+    <t>2837</t>
+  </si>
+  <si>
+    <t>2915</t>
+  </si>
+  <si>
+    <t>2930</t>
+  </si>
+  <si>
+    <t>2927</t>
+  </si>
+  <si>
+    <t>3084</t>
+  </si>
+  <si>
+    <t>3064</t>
+  </si>
+  <si>
+    <t>2888</t>
+  </si>
+  <si>
+    <t>2732</t>
+  </si>
+  <si>
+    <t>2630</t>
+  </si>
+  <si>
+    <t>2534</t>
+  </si>
+  <si>
+    <t>2445</t>
+  </si>
+  <si>
+    <t>2370</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
+    <t>2491</t>
+  </si>
+  <si>
+    <t>2514</t>
+  </si>
+  <si>
+    <t>2515</t>
+  </si>
+  <si>
+    <t>2528</t>
+  </si>
+  <si>
+    <t>2558</t>
+  </si>
+  <si>
+    <t>2605</t>
+  </si>
+  <si>
+    <t>2467</t>
+  </si>
+  <si>
+    <t>2383</t>
+  </si>
+  <si>
+    <t>2362</t>
+  </si>
+  <si>
+    <t>2365</t>
   </si>
   <si>
     <t>2391</t>
   </si>
   <si>
-    <t>2574</t>
-  </si>
-  <si>
-    <t>2710</t>
-  </si>
-  <si>
-    <t>2882</t>
-  </si>
-  <si>
-    <t>2920</t>
-  </si>
-  <si>
-    <t>3085</t>
-  </si>
-  <si>
-    <t>3219</t>
-  </si>
-  <si>
-    <t>3388</t>
-  </si>
-  <si>
-    <t>3531</t>
-  </si>
-  <si>
-    <t>3699</t>
-  </si>
-  <si>
-    <t>3814</t>
-  </si>
-  <si>
-    <t>4010</t>
-  </si>
-  <si>
-    <t>4109</t>
-  </si>
-  <si>
-    <t>4248</t>
-  </si>
-  <si>
-    <t>4230</t>
-  </si>
-  <si>
-    <t>4196</t>
-  </si>
-  <si>
-    <t>4162</t>
-  </si>
-  <si>
-    <t>4097</t>
-  </si>
-  <si>
-    <t>4419</t>
-  </si>
-  <si>
-    <t>4510</t>
-  </si>
-  <si>
-    <t>5082</t>
-  </si>
-  <si>
-    <t>5186</t>
-  </si>
-  <si>
-    <t>5362</t>
-  </si>
-  <si>
-    <t>5292</t>
-  </si>
-  <si>
-    <t>5164</t>
-  </si>
-  <si>
-    <t>5295</t>
-  </si>
-  <si>
-    <t>5360</t>
-  </si>
-  <si>
-    <t>5383</t>
-  </si>
-  <si>
-    <t>4455</t>
-  </si>
-  <si>
-    <t>4352</t>
-  </si>
-  <si>
-    <t>4466</t>
-  </si>
-  <si>
-    <t>4773</t>
-  </si>
-  <si>
-    <t>5064</t>
-  </si>
-  <si>
-    <t>5230</t>
-  </si>
-  <si>
-    <t>5288</t>
-  </si>
-  <si>
-    <t>5286</t>
-  </si>
-  <si>
-    <t>5309</t>
-  </si>
-  <si>
-    <t>5433</t>
-  </si>
-  <si>
-    <t>5543</t>
-  </si>
-  <si>
-    <t>5618</t>
-  </si>
-  <si>
-    <t>5655</t>
-  </si>
-  <si>
-    <t>5587</t>
-  </si>
-  <si>
-    <t>5615</t>
-  </si>
-  <si>
-    <t>5731</t>
-  </si>
-  <si>
-    <t>5870</t>
-  </si>
-  <si>
-    <t>5942</t>
-  </si>
-  <si>
-    <t>6099</t>
-  </si>
-  <si>
-    <t>6410</t>
-  </si>
-  <si>
-    <t>6675</t>
+    <t>2571</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2707</t>
+  </si>
+  <si>
+    <t>2625</t>
+  </si>
+  <si>
+    <t>2683</t>
+  </si>
+  <si>
+    <t>2651</t>
+  </si>
+  <si>
+    <t>2911</t>
+  </si>
+  <si>
+    <t>2896</t>
+  </si>
+  <si>
+    <t>2995</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>3371</t>
+  </si>
+  <si>
+    <t>2899</t>
+  </si>
+  <si>
+    <t>2960</t>
+  </si>
+  <si>
+    <t>2724</t>
+  </si>
+  <si>
+    <t>2577</t>
+  </si>
+  <si>
+    <t>2557</t>
+  </si>
+  <si>
+    <t>2649</t>
+  </si>
+  <si>
+    <t>2681</t>
+  </si>
+  <si>
+    <t>2766</t>
+  </si>
+  <si>
+    <t>2836</t>
+  </si>
+  <si>
+    <t>3054</t>
+  </si>
+  <si>
+    <t>3014</t>
+  </si>
+  <si>
+    <t>3124</t>
+  </si>
+  <si>
+    <t>3217</t>
+  </si>
+  <si>
+    <t>3462</t>
+  </si>
+  <si>
+    <t>3647</t>
+  </si>
+  <si>
+    <t>3877</t>
+  </si>
+  <si>
+    <t>3929</t>
+  </si>
+  <si>
+    <t>4151</t>
+  </si>
+  <si>
+    <t>4331</t>
+  </si>
+  <si>
+    <t>4559</t>
+  </si>
+  <si>
+    <t>4752</t>
+  </si>
+  <si>
+    <t>4976</t>
+  </si>
+  <si>
+    <t>5131</t>
+  </si>
+  <si>
+    <t>5471</t>
+  </si>
+  <si>
+    <t>5571</t>
+  </si>
+  <si>
+    <t>5719</t>
+  </si>
+  <si>
+    <t>5695</t>
+  </si>
+  <si>
+    <t>5649</t>
+  </si>
+  <si>
+    <t>5604</t>
+  </si>
+  <si>
+    <t>5512</t>
+  </si>
+  <si>
+    <t>5946</t>
+  </si>
+  <si>
+    <t>6075</t>
+  </si>
+  <si>
+    <t>6849</t>
+  </si>
+  <si>
+    <t>7313</t>
+  </si>
+  <si>
+    <t>7444</t>
+  </si>
+  <si>
+    <t>7186</t>
+  </si>
+  <si>
+    <t>7192</t>
+  </si>
+  <si>
+    <t>7404</t>
+  </si>
+  <si>
+    <t>7578</t>
+  </si>
+  <si>
+    <t>7653</t>
+  </si>
+  <si>
+    <t>6743</t>
+  </si>
+  <si>
+    <t>6715</t>
+  </si>
+  <si>
+    <t>7119</t>
+  </si>
+  <si>
+    <t>7659.47006881052</t>
+  </si>
+  <si>
+    <t>8148.63157836697</t>
+  </si>
+  <si>
+    <t>8450.6716626609</t>
+  </si>
+  <si>
+    <t>8549.6475802309</t>
+  </si>
+  <si>
+    <t>8555.78335659481</t>
+  </si>
+  <si>
+    <t>8652.0757584253</t>
+  </si>
+  <si>
+    <t>9054.72204260527</t>
+  </si>
+  <si>
+    <t>9560.33544683014</t>
+  </si>
+  <si>
+    <t>9784.69411818765</t>
+  </si>
+  <si>
+    <t>9898.78778060818</t>
+  </si>
+  <si>
+    <t>9804.55881472249</t>
+  </si>
+  <si>
+    <t>9879.4543564848</t>
+  </si>
+  <si>
+    <t>10153.772014301</t>
+  </si>
+  <si>
+    <t>10769.5231825041</t>
+  </si>
+  <si>
+    <t>11389.2439515475</t>
+  </si>
+  <si>
+    <t>12195.7468428312</t>
+  </si>
+  <si>
+    <t>13492.3829777693</t>
+  </si>
+  <si>
+    <t>14466.9673417838</t>
+  </si>
+  <si>
+    <t>14515.7660210727</t>
+  </si>
+  <si>
+    <t>15169.124712276</t>
+  </si>
+  <si>
+    <t>16762</t>
+  </si>
+  <si>
+    <t>18051</t>
+  </si>
+  <si>
+    <t>18979</t>
+  </si>
+  <si>
+    <t>19855</t>
+  </si>
+  <si>
+    <t>20723</t>
+  </si>
+  <si>
+    <t>21449</t>
   </si>
   <si>
     <t>Description</t>
@@ -340,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1945.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -357,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1946.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -374,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1947.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -391,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1948.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -408,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1949.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -425,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1950.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -442,7 +577,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1951.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -459,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1952.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -476,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1953.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -493,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1954.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -510,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1955.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -527,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1956.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -544,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1957.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -561,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1958.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -578,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1959.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -595,7 +730,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1960.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -612,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1961.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -629,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1962.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -646,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1963.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
@@ -663,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1964.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
@@ -680,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1965.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -697,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1966.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
@@ -714,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1967.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
@@ -731,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1968.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
@@ -748,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1969.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E26" t="s">
         <v>31</v>
@@ -765,7 +900,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1970.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
@@ -782,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1971.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
@@ -799,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1972.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E29" t="s">
         <v>34</v>
@@ -816,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1973.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E30" t="s">
         <v>35</v>
@@ -833,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1974.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -850,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1975.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E32" t="s">
         <v>37</v>
@@ -867,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1976.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
@@ -884,7 +1019,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1977.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E34" t="s">
         <v>39</v>
@@ -901,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1978.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
@@ -918,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1979.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E36" t="s">
         <v>41</v>
@@ -935,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1980.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E37" t="s">
         <v>42</v>
@@ -952,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1981.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
@@ -969,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1982.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E39" t="s">
         <v>44</v>
@@ -986,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1983.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E40" t="s">
         <v>45</v>
@@ -1003,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1984.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E41" t="s">
         <v>46</v>
@@ -1020,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1985.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E42" t="s">
         <v>47</v>
@@ -1037,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1986.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E43" t="s">
         <v>48</v>
@@ -1054,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1987.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E44" t="s">
         <v>49</v>
@@ -1071,10 +1206,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1988.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -1088,10 +1223,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1989.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
@@ -1105,10 +1240,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1990.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -1122,10 +1257,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1991.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
@@ -1139,10 +1274,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1992.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
@@ -1156,10 +1291,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1993.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51">
@@ -1173,10 +1308,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1994.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
@@ -1190,10 +1325,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1995.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -1207,10 +1342,10 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1996.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
@@ -1224,10 +1359,10 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1997.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
@@ -1241,10 +1376,10 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1998.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56">
@@ -1258,10 +1393,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1999.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57">
@@ -1275,10 +1410,10 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>2000.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
@@ -1292,10 +1427,10 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>2001.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59">
@@ -1309,10 +1444,10 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>2002.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60">
@@ -1326,10 +1461,10 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>2003.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61">
@@ -1343,10 +1478,10 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2004.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62">
@@ -1360,10 +1495,10 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>2005.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63">
@@ -1377,10 +1512,10 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>2006.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64">
@@ -1394,10 +1529,10 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>2007.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65">
@@ -1411,10 +1546,809 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
+        <v>1969.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="n">
         <v>2008.0</v>
       </c>
-      <c r="E65" t="s">
-        <v>70</v>
+      <c r="E104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1432,50 +2366,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
